--- a/stateYear7/data/postBleachMonitoringTEST.xlsx
+++ b/stateYear7/data/postBleachMonitoringTEST.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICombs\Documents\GitHub\fwcStateReports\stateYear7\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iancombs/Documents/GitHub/fwcStateReports/stateYear7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DC604A-D411-432C-B58C-4E256E27D1FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4EBD59-BD3A-784B-8D8E-F00D7B178ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380"/>
+    <workbookView xWindow="38400" yWindow="-1800" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postBleachMonitoringTEST" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="109">
   <si>
     <t>Deliverable</t>
   </si>
@@ -341,13 +354,22 @@
   </si>
   <si>
     <t>S_AP_4</t>
+  </si>
+  <si>
+    <t>ES (E. Sambo)</t>
+  </si>
+  <si>
+    <t>ES_AP_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +509,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -830,10 +865,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,9 +930,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -933,7 +970,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1039,7 +1076,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1181,23 +1218,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1241,359 +1287,359 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H2">
+        <v>291</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>243</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.48</v>
+      </c>
+      <c r="H3">
+        <v>248</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3">
         <v>240</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>431</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H5">
+        <v>204</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6">
         <v>0.996</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>489</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.34</v>
+      </c>
+      <c r="H7">
+        <v>251</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>170</v>
+      </c>
+      <c r="M7">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>0.76666666670000005</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>239.04</v>
-      </c>
-      <c r="M2">
-        <v>184.000000008</v>
-      </c>
-      <c r="N2">
-        <v>0.76974564929718903</v>
-      </c>
-      <c r="O2">
-        <v>0.230254350702811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>345</v>
-      </c>
-      <c r="F3">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="G3">
-        <v>0.78</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.51304347829999997</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>269.10000000000002</v>
-      </c>
-      <c r="M3">
-        <v>177.0000000135</v>
-      </c>
-      <c r="N3">
-        <v>0.65774804910256401</v>
-      </c>
-      <c r="O3">
-        <v>0.34225195089743599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>105</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>103.005</v>
-      </c>
-      <c r="M4">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="N4">
-        <v>0.69317023445463799</v>
-      </c>
-      <c r="O4">
-        <v>0.30682976554536201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>0.71333333330000004</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5">
-        <v>133.94999999999999</v>
-      </c>
-      <c r="M5">
-        <v>106.999999995</v>
-      </c>
-      <c r="N5">
-        <v>0.79880552441209396</v>
-      </c>
-      <c r="O5">
-        <v>0.20119447558790601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>500</v>
-      </c>
-      <c r="F6">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="G6">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="H6">
-        <v>291</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6">
-        <v>243</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="N7">
+        <v>0.111764705882353</v>
+      </c>
+      <c r="O7">
+        <v>0.88823529411764701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>500</v>
-      </c>
-      <c r="F7">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.48</v>
-      </c>
-      <c r="H7">
-        <v>248</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7">
-        <v>240</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H8">
+        <v>314</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>458</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>500</v>
-      </c>
-      <c r="F8">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>431</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>500</v>
       </c>
       <c r="F9">
-        <v>0.84599999999999997</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G9">
-        <v>6.8000000000000005E-2</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="H9">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1605,7 +1651,7 @@
         <v>28</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1617,124 +1663,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>500</v>
       </c>
       <c r="F10">
-        <v>0.996</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2E-3</v>
+      </c>
+      <c r="O10">
+        <f>1-N10</f>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>500</v>
       </c>
       <c r="F11">
-        <v>0.91400000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="G11">
-        <v>0.34</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H11">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11">
-        <v>3.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
       </c>
       <c r="L11">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.111764705882353</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.88823529411764701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12">
-        <v>0.97599999999999998</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.91600000000000004</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="H12">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -1746,7 +1793,7 @@
         <v>28</v>
       </c>
       <c r="L12">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1758,33 +1805,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="F13">
-        <v>0.99199999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="G13">
-        <v>0.30199999999999999</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>165</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
+        <v>482</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1793,78 +1840,77 @@
         <v>28</v>
       </c>
       <c r="L13">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>500</v>
       </c>
       <c r="F14">
-        <v>0.99199999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="H14">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
       </c>
       <c r="J14">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>28</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <f>1-N14</f>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -1873,10 +1919,10 @@
         <v>0.98</v>
       </c>
       <c r="G15">
-        <v>0.24399999999999999</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="H15">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -1888,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1900,30 +1946,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="G16">
-        <v>0.94599999999999995</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -1935,45 +1981,45 @@
         <v>28</v>
       </c>
       <c r="L16">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="H17">
-        <v>482</v>
-      </c>
-      <c r="I17">
-        <v>18</v>
+        <v>325</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1982,42 +2028,42 @@
         <v>28</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>500</v>
       </c>
       <c r="F18">
-        <v>0.996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="G18">
-        <v>0.85799999999999998</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="H18">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -2029,7 +2075,7 @@
         <v>28</v>
       </c>
       <c r="L18">
-        <v>429</v>
+        <v>262</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2041,30 +2087,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>500</v>
       </c>
       <c r="F19">
-        <v>0.98</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="G19">
-        <v>0.72199999999999998</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="H19">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -2076,7 +2122,7 @@
         <v>28</v>
       </c>
       <c r="L19">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2088,30 +2134,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>500</v>
       </c>
       <c r="F20">
-        <v>0.96599999999999997</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -2135,265 +2181,265 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
+      </c>
+      <c r="F21">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H21">
+        <v>365</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21">
+        <v>424</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21">
-        <v>500</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="H21">
-        <v>325</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21">
-        <v>264</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
       <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>0.98</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>465</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>444</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>0.996</v>
+      </c>
+      <c r="G24">
+        <v>0.874</v>
+      </c>
+      <c r="H24">
+        <v>306</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <v>437</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>500</v>
-      </c>
-      <c r="F22">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G22">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="H22">
-        <v>313</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22">
-        <v>262</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.45</v>
+      </c>
+      <c r="H25">
+        <v>309</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25">
+        <v>225</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23">
-        <v>500</v>
-      </c>
-      <c r="F23">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G23">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="H23">
-        <v>300</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23">
-        <v>381</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24">
-        <v>500</v>
-      </c>
-      <c r="F24">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>446</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25">
-        <v>500</v>
-      </c>
-      <c r="F25">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="G25">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="H25">
-        <v>365</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25">
-        <v>424</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>500</v>
       </c>
       <c r="F26">
-        <v>0.98</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -2417,30 +2463,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>500</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="H27">
-        <v>444</v>
+        <v>257</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -2452,42 +2498,42 @@
         <v>28</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>500</v>
       </c>
       <c r="F28">
-        <v>0.996</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G28">
-        <v>0.874</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="H28">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -2499,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="L28">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2511,30 +2557,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>500</v>
       </c>
       <c r="F29">
-        <v>0.86599999999999999</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="G29">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H29">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -2546,7 +2592,7 @@
         <v>28</v>
       </c>
       <c r="L29">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2558,33 +2604,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>500</v>
       </c>
       <c r="F30">
-        <v>0.97199999999999998</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>461</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
+        <v>488</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2605,30 +2651,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>500</v>
       </c>
       <c r="F31">
-        <v>0.94399999999999995</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.73</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="H31">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -2640,7 +2686,7 @@
         <v>28</v>
       </c>
       <c r="L31">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2652,30 +2698,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>500</v>
       </c>
       <c r="F32">
-        <v>0.94399999999999995</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="G32">
-        <v>0.77200000000000002</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>320</v>
+        <v>475</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -2687,30 +2733,30 @@
         <v>28</v>
       </c>
       <c r="L32">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -2719,10 +2765,10 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="G33">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="H33">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -2734,7 +2780,7 @@
         <v>28</v>
       </c>
       <c r="L33">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2746,33 +2792,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E34">
         <v>500</v>
       </c>
       <c r="F34">
-        <v>0.97799999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="H34">
-        <v>488</v>
-      </c>
-      <c r="I34">
-        <v>12</v>
+        <v>168</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2781,42 +2827,42 @@
         <v>28</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E35">
         <v>500</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G35">
-        <v>0.90600000000000003</v>
+        <v>0.504</v>
       </c>
       <c r="H35">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -2828,7 +2874,7 @@
         <v>28</v>
       </c>
       <c r="L35">
-        <v>453</v>
+        <v>252</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2840,30 +2886,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E36">
         <v>500</v>
       </c>
       <c r="F36">
-        <v>0.98799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -2887,77 +2933,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>0.996</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>480</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37">
-        <v>500</v>
-      </c>
-      <c r="F37">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="G37">
-        <v>0.51</v>
-      </c>
-      <c r="H37">
-        <v>294</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37">
-        <v>255</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E38">
         <v>500</v>
       </c>
       <c r="F38">
-        <v>0.996</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="G38">
-        <v>0.34200000000000003</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="H38">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -2969,7 +3015,7 @@
         <v>28</v>
       </c>
       <c r="L38">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2981,30 +3027,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E39">
         <v>500</v>
       </c>
       <c r="F39">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G39">
-        <v>0.504</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="H39">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -3016,7 +3062,7 @@
         <v>28</v>
       </c>
       <c r="L39">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3028,265 +3074,265 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G40">
+        <v>0.248</v>
+      </c>
+      <c r="H40">
+        <v>283</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>2E-3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <v>124</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>8.0645161290322596E-3</v>
+      </c>
+      <c r="O40">
+        <v>0.99193548387096797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G41">
+        <v>0.73</v>
+      </c>
+      <c r="H41">
+        <v>334</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41">
+        <v>365</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40">
-        <v>500</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>444</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41">
-        <v>500</v>
-      </c>
-      <c r="F41">
-        <v>0.996</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>480</v>
-      </c>
-      <c r="I41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>0.995</v>
+      </c>
+      <c r="G42">
+        <v>0.41</v>
+      </c>
+      <c r="H42">
+        <v>92</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <v>82</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <v>0.998</v>
+      </c>
+      <c r="G43">
+        <v>0.83</v>
+      </c>
+      <c r="H43">
+        <v>289</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>2E-3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43">
+        <v>415</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2.4096385542168699E-3</v>
+      </c>
+      <c r="O43">
+        <v>0.99759036144578295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.47</v>
+      </c>
+      <c r="H44">
+        <v>265</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>0.01</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44">
+        <v>235</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="O44">
+        <v>0.97872340425531901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42">
-        <v>500</v>
-      </c>
-      <c r="F42">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G42">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="H42">
-        <v>184</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42">
-        <v>179</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43">
-        <v>500</v>
-      </c>
-      <c r="F43">
-        <v>0.97</v>
-      </c>
-      <c r="G43">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H43">
-        <v>230</v>
-      </c>
-      <c r="I43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43">
-        <v>223</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44">
-        <v>500</v>
-      </c>
-      <c r="F44">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="G44">
-        <v>0.248</v>
-      </c>
-      <c r="H44">
-        <v>283</v>
-      </c>
-      <c r="I44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44">
-        <v>2E-3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44">
-        <v>124</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>8.0645161290322596E-3</v>
-      </c>
-      <c r="O44">
-        <v>0.99193548387096797</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <v>500</v>
       </c>
       <c r="F45">
-        <v>0.83599999999999997</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G45">
-        <v>0.73</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="H45">
-        <v>334</v>
+        <v>228</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -3298,7 +3344,7 @@
         <v>28</v>
       </c>
       <c r="L45">
-        <v>365</v>
+        <v>116</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3310,30 +3356,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E46">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="F46">
-        <v>0.995</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="G46">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -3342,233 +3388,234 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="L46">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N46" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <v>604</v>
+      </c>
+      <c r="F47">
+        <v>0.97</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48">
+        <v>712</v>
+      </c>
+      <c r="F48">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>88</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>1.404494382E-3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0.99999999998400002</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="O48" s="1">
+        <f>1-N48</f>
+        <v>0.98870000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47">
-        <v>500</v>
-      </c>
-      <c r="F47">
-        <v>0.998</v>
-      </c>
-      <c r="G47">
-        <v>0.83</v>
-      </c>
-      <c r="H47">
-        <v>289</v>
-      </c>
-      <c r="I47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47">
-        <v>2E-3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47">
-        <v>415</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>2.4096385542168699E-3</v>
-      </c>
-      <c r="O47">
-        <v>0.99759036144578295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49">
+        <v>265</v>
+      </c>
+      <c r="F49">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="G49">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H49">
+        <v>84</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>1.1320754719999999E-2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>95</v>
+      </c>
+      <c r="L49">
+        <v>6.0949999999999998</v>
+      </c>
+      <c r="M49">
+        <v>3.0000000008000001</v>
+      </c>
+      <c r="N49">
+        <v>0.49220672695652201</v>
+      </c>
+      <c r="O49">
+        <v>0.50779327304347799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48">
-        <v>500</v>
-      </c>
-      <c r="F48">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="G48">
-        <v>0.47</v>
-      </c>
-      <c r="H48">
-        <v>265</v>
-      </c>
-      <c r="I48" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48">
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G50">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H50">
+        <v>109</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
         <v>0.01</v>
-      </c>
-      <c r="K48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48">
-        <v>235</v>
-      </c>
-      <c r="M48">
-        <v>5</v>
-      </c>
-      <c r="N48">
-        <v>2.1276595744680899E-2</v>
-      </c>
-      <c r="O48">
-        <v>0.97872340425531901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49">
-        <v>500</v>
-      </c>
-      <c r="F49">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G49">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="H49">
-        <v>228</v>
-      </c>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49">
-        <v>116</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50">
-        <v>504</v>
-      </c>
-      <c r="F50">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>82</v>
-      </c>
-      <c r="I50" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
       </c>
       <c r="K50" t="s">
         <v>95</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <v>1.2468827930174601E-2</v>
+      </c>
+      <c r="O50">
+        <v>0.98753117206982499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>604</v>
+        <v>480</v>
       </c>
       <c r="F51">
-        <v>0.97</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="H51">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
         <v>17</v>
@@ -3580,184 +3627,183 @@
         <v>95</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>304.8</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H52">
         <v>32</v>
       </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52">
-        <v>712</v>
-      </c>
-      <c r="F52">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>88</v>
-      </c>
       <c r="I52" t="s">
         <v>17</v>
       </c>
       <c r="J52">
-        <v>1.404494382E-3</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
         <v>95</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="M52">
-        <v>0.99999999998400002</v>
-      </c>
-      <c r="N52" s="2">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="O52" s="1">
-        <f>1-N52</f>
-        <v>0.98870000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E53">
-        <v>265</v>
+        <v>1090</v>
       </c>
       <c r="F53">
-        <v>0.98099999999999998</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="G53">
-        <v>2.3E-2</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="H53">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
       </c>
       <c r="J53">
-        <v>1.1320754719999999E-2</v>
+        <v>9.1743119269999996E-4</v>
       </c>
       <c r="K53" t="s">
         <v>95</v>
       </c>
       <c r="L53">
-        <v>6.0949999999999998</v>
+        <v>695.42</v>
       </c>
       <c r="M53">
-        <v>3.0000000008000001</v>
+        <v>1.000000000043</v>
       </c>
       <c r="N53">
-        <v>0.49220672695652201</v>
+        <v>1.43797992586207E-3</v>
       </c>
       <c r="O53">
-        <v>0.50779327304347799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.99856202007413797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E54">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="F54">
-        <v>0.88400000000000001</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G54">
-        <v>0.80200000000000005</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H54">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I54" t="s">
         <v>17</v>
       </c>
       <c r="J54">
-        <v>0.01</v>
+        <v>3.172413793E-2</v>
       </c>
       <c r="K54" t="s">
         <v>95</v>
       </c>
       <c r="L54">
-        <v>401</v>
+        <v>448.77499999999998</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>22.999999999250001</v>
       </c>
       <c r="N54">
-        <v>1.2468827930174601E-2</v>
+        <v>5.1250626704361903E-2</v>
       </c>
       <c r="O54">
-        <v>0.98753117206982499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.94874937329563802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E55">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="F55">
-        <v>0.97499999999999998</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="G55">
-        <v>0.63500000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="H55">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
@@ -3769,7 +3815,7 @@
         <v>95</v>
       </c>
       <c r="L55">
-        <v>304.8</v>
+        <v>203.19</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3781,242 +3827,289 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E56">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="G56">
-        <v>0.22700000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="H56">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>8.6956521740000001E-3</v>
       </c>
       <c r="K56" t="s">
         <v>95</v>
       </c>
       <c r="L56">
-        <v>68.099999999999994</v>
+        <v>258.06</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>3.00000000003</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1.16252034411765E-2</v>
       </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.98837479655882399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>1090</v>
+        <v>240</v>
       </c>
       <c r="F57">
-        <v>0.96799999999999997</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="H57">
-        <v>178</v>
-      </c>
-      <c r="I57" t="s">
-        <v>17</v>
+        <v>0.996</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57">
+        <v>19</v>
       </c>
       <c r="J57">
-        <v>9.1743119269999996E-4</v>
+        <v>0.76666666670000005</v>
       </c>
       <c r="K57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57">
+        <v>239.04</v>
+      </c>
+      <c r="M57">
+        <v>184.000000008</v>
+      </c>
+      <c r="N57">
+        <v>0.76974564929718903</v>
+      </c>
+      <c r="O57">
+        <v>0.230254350702811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58">
+        <v>345</v>
+      </c>
+      <c r="F58">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="G58">
+        <v>0.78</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.51304347829999997</v>
+      </c>
+      <c r="K58" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58">
+        <v>269.10000000000002</v>
+      </c>
+      <c r="M58">
+        <v>177.0000000135</v>
+      </c>
+      <c r="N58">
+        <v>0.65774804910256401</v>
+      </c>
+      <c r="O58">
+        <v>0.34225195089743599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>105</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.68</v>
+      </c>
+      <c r="K59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59">
+        <v>103.005</v>
+      </c>
+      <c r="M59">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="N59">
+        <v>0.69317023445463799</v>
+      </c>
+      <c r="O59">
+        <v>0.30682976554536201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>150</v>
+      </c>
+      <c r="F60">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>0.71333333330000004</v>
+      </c>
+      <c r="K60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60">
+        <v>133.94999999999999</v>
+      </c>
+      <c r="M60">
+        <v>106.999999995</v>
+      </c>
+      <c r="N60">
+        <v>0.79880552441209396</v>
+      </c>
+      <c r="O60">
+        <v>0.20119447558790601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61">
+        <v>1101</v>
+      </c>
+      <c r="I61" s="3">
+        <v>71</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K61" t="s">
         <v>95</v>
       </c>
-      <c r="L57">
-        <v>695.42</v>
-      </c>
-      <c r="M57">
-        <v>1.000000000043</v>
-      </c>
-      <c r="N57">
-        <v>1.43797992586207E-3</v>
-      </c>
-      <c r="O57">
-        <v>0.99856202007413797</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58">
-        <v>725</v>
-      </c>
-      <c r="F58">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="G58">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="H58">
-        <v>87</v>
-      </c>
-      <c r="I58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58">
-        <v>3.172413793E-2</v>
-      </c>
-      <c r="K58" t="s">
-        <v>95</v>
-      </c>
-      <c r="L58">
-        <v>448.77499999999998</v>
-      </c>
-      <c r="M58">
-        <v>22.999999999250001</v>
-      </c>
-      <c r="N58">
-        <v>5.1250626704361903E-2</v>
-      </c>
-      <c r="O58">
-        <v>0.94874937329563802</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59">
-        <v>390</v>
-      </c>
-      <c r="F59">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="G59">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="H59">
-        <v>139</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
-        <v>95</v>
-      </c>
-      <c r="L59">
-        <v>203.19</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60">
-        <v>345</v>
-      </c>
-      <c r="F60">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="G60">
-        <v>0.748</v>
-      </c>
-      <c r="H60">
-        <v>142</v>
-      </c>
-      <c r="I60" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60">
-        <v>8.6956521740000001E-3</v>
-      </c>
-      <c r="K60" t="s">
-        <v>95</v>
-      </c>
-      <c r="L60">
-        <v>258.06</v>
-      </c>
-      <c r="M60">
-        <v>3.00000000003</v>
-      </c>
-      <c r="N60">
-        <v>1.16252034411765E-2</v>
-      </c>
-      <c r="O60">
-        <v>0.98837479655882399</v>
+      <c r="L61" s="3">
+        <v>1170</v>
+      </c>
+      <c r="M61" s="3">
+        <v>28</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.76100000000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O60">
+    <sortCondition ref="K1:K60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
